--- a/de/DS_DOAN_CQ_HK1_17-18 - 25_9 - SV.xlsx
+++ b/de/DS_DOAN_CQ_HK1_17-18 - 25_9 - SV.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive - Faculty of IT - Ton Duc Thang University\TEDDY\7 - DO AN - LUAN VAN\DO AN HK1.1718\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duyth\Documents\GitHub\a2\de\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="630" yWindow="555" windowWidth="17940" windowHeight="11175"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="ĐỒ ÁN" sheetId="3" r:id="rId1"/>
@@ -3276,7 +3276,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3462,13 +3462,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3568,6 +3568,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3603,6 +3620,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3779,13 +3813,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z833"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3797,7 +3831,7 @@
     <col min="5" max="5" width="49.7109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" customWidth="1"/>
     <col min="7" max="8" width="37.140625" customWidth="1"/>
-    <col min="9" max="9" width="35.28515625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" style="20" customWidth="1"/>
     <col min="10" max="17" width="9.85546875" customWidth="1"/>
     <col min="18" max="18" width="17.28515625" customWidth="1"/>
     <col min="19" max="19" width="8" customWidth="1"/>
@@ -3805,13 +3839,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="18"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -3910,7 +3944,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -3954,7 +3988,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -4000,7 +4034,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -4044,7 +4078,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -4088,7 +4122,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -4132,7 +4166,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="135" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="135" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -4176,7 +4210,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="150" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="150" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -4220,7 +4254,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="135" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="135" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -4266,7 +4300,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -4310,7 +4344,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -4354,7 +4388,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="195" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -4398,7 +4432,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -4444,7 +4478,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="180" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -4490,7 +4524,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -4536,7 +4570,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>15</v>
       </c>
@@ -4580,7 +4614,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -4624,7 +4658,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="150" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -4668,7 +4702,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -4712,7 +4746,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>19</v>
       </c>
@@ -4756,7 +4790,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -4800,7 +4834,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="270" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="270" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>21</v>
       </c>
@@ -4844,7 +4878,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="285" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="285" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>22</v>
       </c>
@@ -4890,7 +4924,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="225" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="225" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>23</v>
       </c>
@@ -4934,7 +4968,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>24</v>
       </c>
@@ -4978,7 +5012,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="225" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="225" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>25</v>
       </c>
@@ -5022,7 +5056,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>26</v>
       </c>
@@ -5066,7 +5100,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>27</v>
       </c>
@@ -5110,7 +5144,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>28</v>
       </c>
@@ -5154,7 +5188,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="150" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>29</v>
       </c>
@@ -5198,7 +5232,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>30</v>
       </c>
@@ -5244,7 +5278,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>31</v>
       </c>
@@ -5288,7 +5322,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="270" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="270" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>32</v>
       </c>
@@ -5332,7 +5366,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>33</v>
       </c>
@@ -5378,7 +5412,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>34</v>
       </c>
@@ -5424,7 +5458,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="195" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>35</v>
       </c>
@@ -5468,7 +5502,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>36</v>
       </c>
@@ -5512,7 +5546,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>37</v>
       </c>
@@ -5556,7 +5590,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>38</v>
       </c>
@@ -5600,7 +5634,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>39</v>
       </c>
@@ -5644,7 +5678,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>40</v>
       </c>
@@ -5688,7 +5722,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>41</v>
       </c>
@@ -5732,7 +5766,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>42</v>
       </c>
@@ -5776,7 +5810,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>43</v>
       </c>
@@ -5820,7 +5854,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="135" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="135" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>44</v>
       </c>
@@ -5864,7 +5898,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>45</v>
       </c>
@@ -5908,7 +5942,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>46</v>
       </c>
@@ -5952,7 +5986,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>47</v>
       </c>
@@ -5996,7 +6030,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="120" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="120" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>48</v>
       </c>
@@ -6040,7 +6074,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>49</v>
       </c>
@@ -6084,7 +6118,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>50</v>
       </c>
@@ -6128,7 +6162,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>51</v>
       </c>
@@ -6172,7 +6206,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>52</v>
       </c>
@@ -6216,7 +6250,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>53</v>
       </c>
@@ -6260,7 +6294,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="150" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="150" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>54</v>
       </c>
@@ -6304,7 +6338,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>55</v>
       </c>
@@ -6350,7 +6384,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>56</v>
       </c>
@@ -6396,7 +6430,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>57</v>
       </c>
@@ -6442,7 +6476,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>1</v>
       </c>
@@ -6486,7 +6520,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>2</v>
       </c>
@@ -6530,7 +6564,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>3</v>
       </c>
@@ -6574,7 +6608,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>4</v>
       </c>
@@ -6620,7 +6654,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>5</v>
       </c>
@@ -6664,7 +6698,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>6</v>
       </c>
@@ -6708,7 +6742,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>7</v>
       </c>
@@ -6752,7 +6786,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>8</v>
       </c>
@@ -6796,7 +6830,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>9</v>
       </c>
@@ -6840,7 +6874,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>10</v>
       </c>
@@ -6884,7 +6918,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>11</v>
       </c>
@@ -6928,7 +6962,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>12</v>
       </c>
@@ -6974,7 +7008,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>13</v>
       </c>
@@ -7020,7 +7054,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>14</v>
       </c>
@@ -7066,7 +7100,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>15</v>
       </c>
@@ -7112,7 +7146,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>16</v>
       </c>
@@ -7156,7 +7190,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>17</v>
       </c>
@@ -7200,7 +7234,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" ht="150" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="150" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>18</v>
       </c>
@@ -7244,7 +7278,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" ht="150" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="150" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>19</v>
       </c>
@@ -7288,7 +7322,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>20</v>
       </c>
@@ -7332,7 +7366,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>21</v>
       </c>
@@ -7376,7 +7410,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>22</v>
       </c>
@@ -7420,7 +7454,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>23</v>
       </c>
@@ -7464,7 +7498,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>24</v>
       </c>
@@ -7508,7 +7542,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>25</v>
       </c>
@@ -7554,7 +7588,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26" ht="120" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="120" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>26</v>
       </c>
@@ -7600,7 +7634,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>27</v>
       </c>
@@ -7644,7 +7678,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>28</v>
       </c>
@@ -7688,7 +7722,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>29</v>
       </c>
@@ -7732,7 +7766,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>30</v>
       </c>
@@ -7776,7 +7810,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>31</v>
       </c>
@@ -7820,7 +7854,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26" ht="382.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="382.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>32</v>
       </c>
@@ -7866,7 +7900,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="140.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>33</v>
       </c>
@@ -7912,7 +7946,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="242.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>34</v>
       </c>
@@ -7958,7 +7992,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26" ht="369.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="369.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>35</v>
       </c>
@@ -8004,7 +8038,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>36</v>
       </c>
@@ -8050,7 +8084,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>37</v>
       </c>
@@ -8096,7 +8130,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26" ht="267.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="267.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>38</v>
       </c>
@@ -8142,7 +8176,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26" ht="306" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="306" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>39</v>
       </c>
@@ -8188,7 +8222,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>40</v>
       </c>
@@ -8234,7 +8268,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>41</v>
       </c>
@@ -8280,7 +8314,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>42</v>
       </c>
@@ -8324,7 +8358,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26" ht="120" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="120" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>43</v>
       </c>
@@ -8370,7 +8404,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26" ht="120" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="120" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <v>44</v>
       </c>
@@ -8416,7 +8450,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>45</v>
       </c>
@@ -8462,7 +8496,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>46</v>
       </c>
@@ -8508,7 +8542,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26" ht="135" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="135" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>47</v>
       </c>
@@ -8552,7 +8586,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <v>48</v>
       </c>
@@ -8596,7 +8630,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>49</v>
       </c>
@@ -8684,7 +8718,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>51</v>
       </c>
@@ -8730,7 +8764,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <v>52</v>
       </c>
@@ -8774,7 +8808,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>53</v>
       </c>
@@ -8818,7 +8852,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>54</v>
       </c>
@@ -8862,7 +8896,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>55</v>
       </c>
@@ -8906,7 +8940,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>56</v>
       </c>
@@ -8950,7 +8984,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>57</v>
       </c>
@@ -8996,7 +9030,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>58</v>
       </c>
@@ -9042,7 +9076,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>59</v>
       </c>
@@ -9086,7 +9120,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>60</v>
       </c>
@@ -9132,7 +9166,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>61</v>
       </c>
@@ -9178,7 +9212,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <v>62</v>
       </c>
@@ -9222,7 +9256,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>63</v>
       </c>
@@ -9266,7 +9300,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <v>64</v>
       </c>
@@ -9310,7 +9344,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>65</v>
       </c>
@@ -9354,7 +9388,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <v>66</v>
       </c>
@@ -9398,7 +9432,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>67</v>
       </c>
@@ -9442,7 +9476,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <v>68</v>
       </c>
@@ -9486,7 +9520,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>69</v>
       </c>
@@ -9530,7 +9564,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>70</v>
       </c>
@@ -9574,7 +9608,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>71</v>
       </c>
@@ -9620,7 +9654,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>72</v>
       </c>
@@ -9666,7 +9700,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>73</v>
       </c>
@@ -9710,7 +9744,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>74</v>
       </c>
@@ -9754,7 +9788,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>75</v>
       </c>
@@ -9798,7 +9832,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>76</v>
       </c>
@@ -9844,7 +9878,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>77</v>
       </c>
@@ -9890,7 +9924,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>78</v>
       </c>
@@ -9936,7 +9970,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>79</v>
       </c>
@@ -9982,7 +10016,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>80</v>
       </c>
@@ -10028,7 +10062,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>81</v>
       </c>
@@ -10074,7 +10108,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>82</v>
       </c>
@@ -10120,7 +10154,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>83</v>
       </c>
@@ -10164,7 +10198,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>84</v>
       </c>
@@ -10210,7 +10244,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>85</v>
       </c>
@@ -10256,7 +10290,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>86</v>
       </c>
@@ -10302,7 +10336,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>87</v>
       </c>
@@ -10348,7 +10382,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>88</v>
       </c>
@@ -10394,7 +10428,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>89</v>
       </c>
@@ -10440,7 +10474,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>90</v>
       </c>
@@ -10486,7 +10520,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>91</v>
       </c>
@@ -10532,7 +10566,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" ht="150" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>92</v>
       </c>
@@ -10578,7 +10612,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>93</v>
       </c>
@@ -10624,7 +10658,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <v>94</v>
       </c>
@@ -10668,7 +10702,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>95</v>
       </c>
@@ -10712,7 +10746,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <v>96</v>
       </c>
@@ -10756,7 +10790,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <v>97</v>
       </c>
@@ -10802,7 +10836,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>98</v>
       </c>
@@ -10848,7 +10882,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
         <v>99</v>
       </c>
@@ -10894,7 +10928,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
         <v>100</v>
       </c>
@@ -10940,7 +10974,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26" ht="165" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="165" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
         <v>101</v>
       </c>
@@ -10986,7 +11020,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8">
         <v>102</v>
       </c>
@@ -11032,7 +11066,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="8">
         <v>103</v>
       </c>
@@ -11078,7 +11112,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="8">
         <v>104</v>
       </c>
@@ -11122,7 +11156,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8">
         <v>105</v>
       </c>
@@ -11166,7 +11200,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
         <v>106</v>
       </c>
@@ -11210,7 +11244,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="8">
         <v>107</v>
       </c>
@@ -11256,7 +11290,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8">
         <v>108</v>
       </c>
@@ -11302,7 +11336,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="8">
         <v>109</v>
       </c>
@@ -11348,7 +11382,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8">
         <v>110</v>
       </c>
@@ -11394,7 +11428,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="8">
         <v>111</v>
       </c>
@@ -11440,7 +11474,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="8">
         <v>112</v>
       </c>
@@ -11486,7 +11520,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8">
         <v>113</v>
       </c>
@@ -11532,7 +11566,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8">
         <v>114</v>
       </c>
@@ -11578,7 +11612,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="8">
         <v>115</v>
       </c>
@@ -11624,7 +11658,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="8">
         <v>1</v>
       </c>
@@ -11662,7 +11696,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26" ht="120" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" ht="120" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="8">
         <v>2</v>
       </c>
@@ -11706,7 +11740,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26" ht="120" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" ht="120" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8">
         <v>3</v>
       </c>
@@ -11750,7 +11784,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="8">
         <v>4</v>
       </c>
@@ -11794,7 +11828,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="8">
         <v>5</v>
       </c>
@@ -11840,7 +11874,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26" ht="120" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" ht="120" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="8">
         <v>6</v>
       </c>
@@ -11884,7 +11918,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26" ht="120" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" ht="120" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8">
         <v>7</v>
       </c>
@@ -11928,7 +11962,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26" ht="120" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" ht="120" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8">
         <v>8</v>
       </c>
@@ -11972,7 +12006,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8">
         <v>9</v>
       </c>
@@ -12016,7 +12050,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="8">
         <v>10</v>
       </c>
@@ -12060,7 +12094,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8">
         <v>11</v>
       </c>
@@ -12104,7 +12138,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8">
         <v>12</v>
       </c>
@@ -12148,7 +12182,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26" ht="120" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" ht="120" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8">
         <v>13</v>
       </c>
@@ -12192,7 +12226,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26" ht="120" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" ht="120" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="8">
         <v>14</v>
       </c>
@@ -27693,7 +27727,13 @@
       <c r="Z833" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:Q189"/>
+  <autoFilter ref="A3:Q189">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Xây dựng hệ thống hỏi và trả lời tự động"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:I2"/>
